--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>Ampliación Waykú</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Marta SpA</t>
+          <t>La Pirámide Norte SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100000</v>
+        <v>86049</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/10/2021</t>
+          <t>29/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153469867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loteo El Guanaco</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Trébol S.A.</t>
+          <t>Inmobiliaria Santa Marta SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/08/2021</t>
+          <t>15/10/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152638847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153469867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Riesco Huechuraba</t>
+          <t>Loteo El Guanaco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Riesco SpA</t>
+          <t>Inmobiliaria El Trébol S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42412</v>
+        <v>40000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/11/2020</t>
+          <t>06/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148877256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152638847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>Parque Riesco Huechuraba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Marta SpA</t>
+          <t>Inmobiliaria Parque Riesco SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100000</v>
+        <v>42412</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/10/2020</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148444092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148877256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>02/10/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965096&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148444092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto Vitapark</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Pirámide SpA</t>
+          <t>Inmobiliaria Santa Marta SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>91000</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/06/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965096&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Medialuna</t>
+          <t>Proyecto Vitapark</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Inmobiliaria La Pirámide SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10656</v>
+        <v>91000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>15/06/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146357568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Medialuna</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>10656</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146357568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Condominio Plaza del Árbol</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Green Limitada.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145151253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Conjunto Huechuraba</t>
+          <t>Condominio Plaza del Árbol</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inversiones E Inmobiliaria Plaenge Chile Limitada</t>
+          <t>Inmobiliaria y Constructora Green Limitada.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>126707</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144175128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145151253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal en la Región Metropolitana</t>
+          <t>Conjunto Huechuraba</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Inversiones E Inmobiliaria Plaenge Chile Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7000</v>
+        <v>126707</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/01/2019</t>
+          <t>12/09/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142385765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144175128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/01/2019</t>
+          <t>30/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142271588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142385765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El Carmen Oriente</t>
+          <t>Transporte Terrestre de Cal en la Región Metropolitana</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>136966</v>
+        <v>7000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>14/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141882572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142271588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAGUNA DE LA PIRÁMIDE</t>
+          <t>El Carmen Oriente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INVERSIONES DESCO S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>55583</v>
+        <v>136966</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138724963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141882572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>LAGUNA DE LA PIRÁMIDE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>INVERSIONES DESCO S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20000</v>
+        <v>55583</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138724963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CAL VIVA HACIA MINERA LOS BRONCES</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1163,21 +1163,21 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7233</v>
+        <v>20000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132432429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132403227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132432429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cocheras Vespucio Norte Línea 2</t>
+          <t>TRANSPORTE DE CAL VIVA HACIA MINERA LOS BRONCES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>65000</v>
+        <v>7233</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132403227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El Carmen Oriente</t>
+          <t>Cocheras Vespucio Norte Línea 2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>80090</v>
+        <v>65000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132281407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>El Carmen Oriente</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>80090</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132281407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Condominio El Carmen Oriente</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>76847</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131517168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LOTE F, HUECHURABA</t>
+          <t>Condominio El Carmen Oriente</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias H y C S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5420</v>
+        <v>76847</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/03/2016</t>
+          <t>29/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131244386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131517168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
+          <t>LOTE F, HUECHURABA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
+          <t>Inversiones y Asesorias H y C S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>900000</v>
+        <v>5420</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131244386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lote F, Huechuraba</t>
+          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorías H y C S.A.</t>
+          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5420</v>
+        <v>900000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LOTEO 3F</t>
+          <t>Lote F, Huechuraba</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LA CRUZ S.A.</t>
+          <t>Inversiones y Asesorías H y C S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22700</v>
+        <v>5420</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/11/2015</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130883225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Loteo 3F</t>
+          <t>LOTEO 3F</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Cruz S.A.</t>
+          <t>INMOBILIARIA LA CRUZ S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/10/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130804482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130883225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vitapark</t>
+          <t>Loteo 3F</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicios de Información Empresarial Limitada</t>
+          <t>Inmobiliaria La Cruz S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200429</v>
+        <v>22700</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>06/10/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130435341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130804482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14/04/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130373849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130435341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Vitapark</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Servicios de Información Empresarial Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>200429</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>14/04/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130373849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NUEVA SAN CRISTÓBAL</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conquistadores Norte S.A</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>71770</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128934038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>NUEVA SAN CRISTÓBAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Conquistadores Norte S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>71770</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128934038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Polideportivo El Salto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y ADMINISTRADORA DE RECINTOS SPA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25000</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7878867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instalación de Estanques de Gas, Planta Alpes Cook &amp; Chill</t>
+          <t>Polideportivo El Salto</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CENTRAL DE RESTAURANTES-ARAMARK LTDA.</t>
+          <t>INMOBILIARIA Y ADMINISTRADORA DE RECINTOS SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/11/2012</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7474056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7878867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Actividad de Recuperación de Aceite Dieléctrico en Transformadores</t>
+          <t>Instalación de Estanques de Gas, Planta Alpes Cook &amp; Chill</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Kioshi Chile SpA</t>
+          <t>CENTRAL DE RESTAURANTES-ARAMARK LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2225</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>15/11/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7280836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7474056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Actividad Recuperación de Aceite Dieléctrico en Transformadores</t>
+          <t>Actividad de Recuperación de Aceite Dieléctrico en Transformadores</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Comercial Kioshi Chile Ltda.</t>
+          <t>Kioshi Chile SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>22/08/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7243160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7280836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Condominio Habitacional "Los Fresnos" Condominio Los Fresnos Exp. 101/2012</t>
+          <t>Actividad Recuperación de Aceite Dieléctrico en Transformadores</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Comercial Kioshi Chile Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8000</v>
+        <v>2225</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16/08/2012</t>
+          <t>22/08/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7240699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7243160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Condominio Habitacional "Los Fresnos" Condominio Los Fresnos Exp. 101/2012</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>16/08/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7240699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONSTRUCCION TORRES 1, 2 Y 3 CONDOMINIO BOSQUES DE LA PIRAMIDE, EX TORRES 16, 17 Y 18</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>INMOBILIARIA ACTUAL BOSQUES DE LA PIRAMIDE SA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>29907</v>
+        <v>800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>CONSTRUCCION TORRES 1, 2 Y 3 CONDOMINIO BOSQUES DE LA PIRAMIDE, EX TORRES 16, 17 Y 18</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>INMOBILIARIA ACTUAL BOSQUES DE LA PIRAMIDE SA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>29907</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>26/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Condominio Habitacional "Los Fresnos"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6325181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Condominio Habitacional "Los Fresnos"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6325181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Condominio "Los Fresnos"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Condominio "Los Fresnos"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>17/11/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,11 +4235,11 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CONJUNTO PARQUE RIESCO</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inversiones y Desarrollo Huechuraba Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>134833</v>
+        <v>4800</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5190079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>CONJUNTO PARQUE RIESCO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Inversiones y Desarrollo Huechuraba Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1750</v>
+        <v>134833</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>29/12/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5190079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo "Santa Marta"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Gonzalo Ponce Guerra</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Proyecto de Loteo "Santa Marta"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Gonzalo Ponce Guerra</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba "MPRCH-2 Prórroga Declaratoria de Utilidad Pública de los Terrenos Destinados a Vías Coletctoras" (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huechuraba</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>21/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3917498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba "MPRCH-2 Prórroga Declaratoria de Utilidad Pública de los Terrenos Destinados a Vías Coletctoras" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Ilustre Municipalidad de Huechuraba</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>21/07/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3917498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Condominio Prados del Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria Security S.A. para Santa Marta Fondo de InversionPrivado</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7000</v>
+        <v>22</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3723541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RECOLETA 5200 - LOTE Nº 3 (e-seia)</t>
+          <t>Condominio Prados del Norte (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>INMOBILIARIA RECOLETA 5200 LTDA.</t>
+          <t>Inmobiliaria Security S.A. para Santa Marta Fondo de InversionPrivado</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3581345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3723541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>RECOLETA 5200 - LOTE Nº 3 (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>INMOBILIARIA RECOLETA 5200 LTDA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>24/02/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3581345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>6712</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Vista Hermosa (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3415990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>Proyecto Inmobiliario Vista Hermosa (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,20 +5858,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3415990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>EDIFICACION TORRE 16 CONJUNTO HABITACIONAL BOSQUES DE LA PIRAMIDE (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Paute Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3851</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>EDIFICACION TORRE 16 CONJUNTO HABITACIONAL BOSQUES DE LA PIRAMIDE (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Inmobiliaria Rio Paute Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>25</v>
+        <v>3851</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>20/11/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Condominio La Hacienda de Huechuraba 6, 7 y 8 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>22000</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3243031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Condominio La Hacienda de Huechuraba 6, 7 y 8 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>22000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>07/10/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3243031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>14367</v>
+        <v>1750</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>LOTEO HUECHURABA II (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LA CRUZ S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4706</v>
+        <v>1750</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3135440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>LOTEO HUECHURABA II (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>INMOBILIARIA LA CRUZ S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>4706</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3135440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6975,17 +6975,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Construccion Nuevas Instalaciones Automotora Mitsui Ltda. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,30 +7394,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Automotora Mitsui Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3900</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2829790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construccion Nuevas Instalaciones Automotora Mitsui Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Automotora Mitsui Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>3900</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2829790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Condominio La Liguria (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Simonetti Gestión S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>14000</v>
+        <v>1750</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Loteo "Haras de Huechuraba H1-I1" (e-seia)</t>
+          <t>Proyecto Condominio La Liguria (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gonzalo Ponce Guerra</t>
+          <t>Simonetti Gestión S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Loteo "Haras de Huechuraba H1-I1" (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Gonzalo Ponce Guerra</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Haras de Huechuraba Lote D2 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1360</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2654795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Haras de Huechuraba D2 (e-seia)</t>
+          <t>Haras de Huechuraba Lote D2 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,21 +7739,21 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>21/01/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2654795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Loteo Haras de Huechuraba D2 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,30 +7874,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones Sector calles Jorge Inostroza Avenida El Pincoy (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>29/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2441826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones Sector calles Jorge Inostroza Avenida El Pincoy (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>29/10/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2441826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>860</v>
+        <v>30</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terminal y Depósito de Minibuses Redbus Urbano S.A. (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,30 +8114,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Redbus Urbano S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1500</v>
+        <v>234</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Terminal y Depósito de Minibuses Redbus Urbano S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,20 +8162,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Redbus Urbano S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>28/09/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones, sector calles Jorge Inostroza- Los Damascos MPRC Huechuraba. Calles Inostroza y Los Damascos (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,20 +8354,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones, sector calles Jorge Inostroza- Los Damascos MPRC Huechuraba. Calles Inostroza y Los Damascos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,30 +8450,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>25000</v>
+        <v>210</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Stelvin (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>640</v>
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1983071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Punta Nogales (e-seia)</t>
+          <t>Proyecto Stelvin (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA SANTIAGO S.A.</t>
+          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>32300</v>
+        <v>640</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1983071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Proyecto STELVIN CHILE (e-seia)</t>
+          <t>Proyecto Inmobiliario Punta Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,25 +8887,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
+          <t>INMOBILIARIA SOCOVESA SANTIAGO S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>640</v>
+        <v>32300</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>29/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1893878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto STELVIN CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,30 +8930,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/01/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1893878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8991,17 +8991,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,25 +9031,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,25 +9079,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9183,17 +9183,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,25 +9319,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE LAS LÍNEAS 110 kV LOS ALMENDROS EL SALTO Y EL SALTO SAN CRISTÓBAL Exp. Nº 112/06 (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,30 +9410,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2039</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>MODIFICACIÓN DE LAS LÍNEAS 110 kV LOS ALMENDROS EL SALTO Y EL SALTO SAN CRISTÓBAL Exp. Nº 112/06 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,20 +9458,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>80</v>
+        <v>2039</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,25 +9559,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9615,17 +9615,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,25 +9655,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9711,17 +9711,17 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,25 +9799,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Depósito y terminal de Vehiculos Huechuraba, Troncal 1 Exp. Nº006/2006 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,30 +9842,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ALSACIA S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>09/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Depósito y terminal de Vehiculos Huechuraba, Troncal 1 Exp. Nº006/2006 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,20 +9890,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALSACIA S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>72</v>
+        <v>2112</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>09/01/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9951,17 +9951,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,25 +9991,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,12 +10034,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10047,17 +10047,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ampliación Espacio Riesco (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,25 +10087,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Centro de convenciones Santiago</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>24/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Ampliación Espacio Riesco (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,20 +10130,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Centro de convenciones Santiago</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>160</v>
+        <v>6170</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>24/11/2005</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,20 +10178,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>5880</v>
+        <v>160</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,15 +10279,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS HUECHURABA-RECOLETA TRONCAL 2 Exp. Nº115/2005. (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,20 +10322,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>7761</v>
+        <v>80</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS HUECHURABA-RECOLETA TRONCAL 2 Exp. Nº115/2005. (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,20 +10370,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>7761</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10571,11 +10571,11 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110kVLos Almendros el Salto, Tramo Tap a S/E La Dehhesa - S/E El Salto (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,20 +10610,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>844</v>
+        <v>40</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>04/07/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RECTIFICACIÓN DEL TRAZADO DESCRITO EN LOS CONSIDERANDOS 3.2.1 A 3.2.7 DE LA RESOLUCIÓN EXENTA N.° 273/2003 DE LA COREMA DE LA REGIÓN METROPOLITANA, QUE APROBÓ EL PROYECTO CONCESIÓN INTERNACIONAL ACCESO NORORIENTE A SANTIAGO, SECTOR ORIENTE, ENLACE CENTENARIO-ENLACE AVDA. DEL VALLE (e-seia)</t>
+          <t>Refuerzo Línea 110kVLos Almendros el Salto, Tramo Tap a S/E La Dehhesa - S/E El Salto (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>203000</v>
+        <v>844</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>17/06/2005</t>
+          <t>04/07/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>RECTIFICACIÓN DEL TRAZADO DESCRITO EN LOS CONSIDERANDOS 3.2.1 A 3.2.7 DE LA RESOLUCIÓN EXENTA N.° 273/2003 DE LA COREMA DE LA REGIÓN METROPOLITANA, QUE APROBÓ EL PROYECTO CONCESIÓN INTERNACIONAL ACCESO NORORIENTE A SANTIAGO, SECTOR ORIENTE, ENLACE CENTENARIO-ENLACE AVDA. DEL VALLE (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,20 +10706,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>855</v>
+        <v>203000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>17/06/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10767,17 +10767,17 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,30 +10802,30 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10863,17 +10863,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,20 +10946,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,15 +10999,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,15 +11047,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Áridos Av. Américo Vespucio Norte (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,30 +11090,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Planta de Procesamiento de Áridos Av. Américo Vespucio Norte (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,25 +11143,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Áridos, Parcela 22, Calle El Guanaco (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Empresa constructora Fe Grande S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11199,17 +11199,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Procesamiento de Áridos, Parcela 22, Calle El Guanaco (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,30 +11234,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa constructora Fe Grande S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Metro Ligero Ejes Recoleta Independencia Santos Dumont</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,30 +11282,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>180000</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Metro Ligero Ejes Recoleta Independencia Santos Dumont</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,20 +11330,20 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,22 +11368,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Concesión Internacional Acceso Nor Oriente a Santiago Sector Oriente. Enlace Centenario - Enlace Avenida del Valle</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11391,17 +11391,17 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,12 +11416,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Lavado y Lubricación de Vehículos Livianos E.S. ESSO Av. Pedro Fontova</t>
+          <t>Concesión Internacional Acceso Nor Oriente a Santiago Sector Oriente. Enlace Centenario - Enlace Avenida del Valle</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11431,15 +11431,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>04/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Lavado y Lubricación de Vehículos Livianos E.S. ESSO Av. Pedro Fontova</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,15 +11479,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>04/10/2002</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Mall Plaza Huechuraba</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,15 +11527,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Plaza Oeste S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>05/07/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Mall Plaza Huechuraba</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Plaza Oeste S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>05/07/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rinconada del Salto</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Fondo de Inversión Santander Plusvalía</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>22/03/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS 22 Modifica Trazado Radial Nor Oriente M21N Prolongación El Alfalfal T14N</t>
+          <t>Conjunto Habitacional Rinconada del Salto</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Fondo de Inversión Santander Plusvalía</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>22/03/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Estación de Servicio Esso Pedro Fontova esq. Avda. El Guanaco, Comuna de Huechuraba (e-seia)</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS 22 Modifica Trazado Radial Nor Oriente M21N Prolongación El Alfalfal T14N</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Estación de Servicio Esso Pedro Fontova esq. Avda. El Guanaco, Comuna de Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,15 +11767,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,30 +11810,30 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,12 +11848,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11863,25 +11863,25 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,30 +11896,30 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11967,17 +11967,17 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,12 +12002,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción y Operación de Planta de Acabados de Telas y Sistema de Tratamiento de RILes de Jadue</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,30 +12050,30 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Faud Murad Alberto Jadue Díaz</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>10/10/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
+          <t>Construcción y Operación de Planta de Acabados de Telas y Sistema de Tratamiento de RILes de Jadue</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,20 +12098,20 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Compañia Transmisora del Norte Grande S.A</t>
+          <t>Faud Murad Alberto Jadue Díaz</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>10/10/2000</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Huechuraba</t>
+          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,30 +12146,30 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Huechuraba</t>
+          <t>Compañia Transmisora del Norte Grande S.A</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>07/03/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Huechuraba</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,30 +12194,30 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Huechuraba</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>07/03/2000</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Loteo Pedro Fontova</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,20 +12242,20 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Empresa Constructora Mena y Ovalle S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10700</v>
+        <v>110</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,12 +12280,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 220 kv a subestación de Transmisión El Salto</t>
+          <t>Loteo Pedro Fontova</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -12295,15 +12295,15 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Empresa Constructora Mena y Ovalle S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,12 +12328,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Condominios La Llanura Los Pimientos Los Canelos y Los Cerezos</t>
+          <t>Línea de Transmisión 220 kv a subestación de Transmisión El Salto</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -12343,15 +12343,15 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>8430</v>
+        <v>8900</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>13/04/1998</t>
+          <t>20/08/1998</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Colegio Huechuraba</t>
+          <t>Condominios La Llanura Los Pimientos Los Canelos y Los Cerezos</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,15 +12391,15 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tierra Fértil Ltda.</t>
+          <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2600</v>
+        <v>8430</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>05/02/1998</t>
+          <t>13/04/1998</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,43 +12424,91 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
+          <t>Colegio Huechuraba</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Tierra Fértil Ltda.</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>05/02/1998</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Huechuraba</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F252" t="n">
+      <c r="F253" t="n">
         <v>300000</v>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
+      <c r="I253" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr">
+      <c r="J253" t="inlineStr">
         <is>
           <t>Huechuraba</t>
         </is>

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/03/2022</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>27/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/09/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Los Sauces</t>
+          <t>Línea de Alta Tensión Huechuraba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro Centro SpA</t>
+          <t>Electrica Huechuraba SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>41287</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156786332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157949519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cumbre de Girasoles</t>
+          <t>Los Sauces</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Inmobiliaria Pocuro Centro SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17816</v>
+        <v>41287</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/07/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156496518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156786332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Waykú</t>
+          <t>Cumbre de Girasoles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>La Pirámide Norte SpA</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>86049</v>
+        <v>17816</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>04/04/2022</t>
+          <t>27/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156496518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>Ampliación Waykú</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Marta SpA</t>
+          <t>La Pirámide Norte SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100000</v>
+        <v>86049</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/10/2021</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153469867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Loteo El Guanaco</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Trébol S.A.</t>
+          <t>Inmobiliaria Santa Marta SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06/08/2021</t>
+          <t>15/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152638847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153469867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Riesco Huechuraba</t>
+          <t>Loteo El Guanaco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Riesco SpA</t>
+          <t>Inmobiliaria El Trébol S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>42412</v>
+        <v>40000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/11/2020</t>
+          <t>06/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148877256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152638847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>Parque Riesco Huechuraba</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Marta SpA</t>
+          <t>Inmobiliaria Parque Riesco SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100000</v>
+        <v>42412</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/10/2020</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148444092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148877256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>02/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965096&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148444092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Vitapark</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Pirámide SpA</t>
+          <t>Inmobiliaria Santa Marta SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>91000</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/06/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965096&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Medialuna</t>
+          <t>Proyecto Vitapark</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Inmobiliaria La Pirámide SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10656</v>
+        <v>91000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>15/06/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146357568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Medialuna</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>10656</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146357568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Condominio Plaza del Árbol</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Green Limitada.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145151253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conjunto Huechuraba</t>
+          <t>Condominio Plaza del Árbol</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inversiones E Inmobiliaria Plaenge Chile Limitada</t>
+          <t>Inmobiliaria y Constructora Green Limitada.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>126707</v>
+        <v>15000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144175128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145151253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal en la Región Metropolitana</t>
+          <t>Conjunto Huechuraba</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Inversiones E Inmobiliaria Plaenge Chile Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7000</v>
+        <v>126707</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/01/2019</t>
+          <t>12/09/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142385765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144175128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/01/2019</t>
+          <t>30/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142271588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142385765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Carmen Oriente</t>
+          <t>Transporte Terrestre de Cal en la Región Metropolitana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>136966</v>
+        <v>7000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>14/01/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141882572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142271588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAGUNA DE LA PIRÁMIDE</t>
+          <t>El Carmen Oriente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>INVERSIONES DESCO S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>55583</v>
+        <v>136966</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138724963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141882572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>LAGUNA DE LA PIRÁMIDE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>INVERSIONES DESCO S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>20000</v>
+        <v>55583</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138724963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CAL VIVA HACIA MINERA LOS BRONCES</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1307,21 +1307,21 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7233</v>
+        <v>20000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132432429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132403227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132432429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cocheras Vespucio Norte Línea 2</t>
+          <t>TRANSPORTE DE CAL VIVA HACIA MINERA LOS BRONCES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>65000</v>
+        <v>7233</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132403227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El Carmen Oriente</t>
+          <t>Cocheras Vespucio Norte Línea 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>80090</v>
+        <v>65000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132281407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>El Carmen Oriente</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>80090</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132281407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Condominio El Carmen Oriente</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>76847</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131517168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LOTE F, HUECHURABA</t>
+          <t>Condominio El Carmen Oriente</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias H y C S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5420</v>
+        <v>76847</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/03/2016</t>
+          <t>29/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131244386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131517168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
+          <t>LOTE F, HUECHURABA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
+          <t>Inversiones y Asesorias H y C S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>900000</v>
+        <v>5420</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131244386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lote F, Huechuraba</t>
+          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorías H y C S.A.</t>
+          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5420</v>
+        <v>900000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LOTEO 3F</t>
+          <t>Lote F, Huechuraba</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LA CRUZ S.A.</t>
+          <t>Inversiones y Asesorías H y C S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22700</v>
+        <v>5420</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/11/2015</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130883225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loteo 3F</t>
+          <t>LOTEO 3F</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Cruz S.A.</t>
+          <t>INMOBILIARIA LA CRUZ S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/10/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130804482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130883225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vitapark</t>
+          <t>Loteo 3F</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicios de Información Empresarial Limitada</t>
+          <t>Inmobiliaria La Cruz S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200429</v>
+        <v>22700</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>06/10/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130435341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130804482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/04/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130373849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130435341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Vitapark</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Servicios de Información Empresarial Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>200429</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>14/04/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130373849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NUEVA SAN CRISTÓBAL</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conquistadores Norte S.A</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>71770</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128934038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>NUEVA SAN CRISTÓBAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Conquistadores Norte S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>71770</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128934038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Polideportivo El Salto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y ADMINISTRADORA DE RECINTOS SPA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>25000</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7878867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Instalación de Estanques de Gas, Planta Alpes Cook &amp; Chill</t>
+          <t>Polideportivo El Salto</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CENTRAL DE RESTAURANTES-ARAMARK LTDA.</t>
+          <t>INMOBILIARIA Y ADMINISTRADORA DE RECINTOS SPA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/11/2012</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7474056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7878867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Actividad de Recuperación de Aceite Dieléctrico en Transformadores</t>
+          <t>Instalación de Estanques de Gas, Planta Alpes Cook &amp; Chill</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Kioshi Chile SpA</t>
+          <t>CENTRAL DE RESTAURANTES-ARAMARK LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2225</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>15/11/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7280836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7474056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Actividad Recuperación de Aceite Dieléctrico en Transformadores</t>
+          <t>Actividad de Recuperación de Aceite Dieléctrico en Transformadores</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Comercial Kioshi Chile Ltda.</t>
+          <t>Kioshi Chile SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/08/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7243160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7280836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Condominio Habitacional "Los Fresnos" Condominio Los Fresnos Exp. 101/2012</t>
+          <t>Actividad Recuperación de Aceite Dieléctrico en Transformadores</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Comercial Kioshi Chile Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8000</v>
+        <v>2225</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/08/2012</t>
+          <t>22/08/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7240699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7243160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Condominio Habitacional "Los Fresnos" Condominio Los Fresnos Exp. 101/2012</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>16/08/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7240699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CONSTRUCCION TORRES 1, 2 Y 3 CONDOMINIO BOSQUES DE LA PIRAMIDE, EX TORRES 16, 17 Y 18</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>INMOBILIARIA ACTUAL BOSQUES DE LA PIRAMIDE SA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>29907</v>
+        <v>800</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>26/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>CONSTRUCCION TORRES 1, 2 Y 3 CONDOMINIO BOSQUES DE LA PIRAMIDE, EX TORRES 16, 17 Y 18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>INMOBILIARIA ACTUAL BOSQUES DE LA PIRAMIDE SA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>29907</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>26/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Condominio Habitacional "Los Fresnos"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6325181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Condominio Habitacional "Los Fresnos"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6325181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Condominio "Los Fresnos"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Condominio "Los Fresnos"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>17/11/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,11 +4379,11 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CONJUNTO PARQUE RIESCO</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inversiones y Desarrollo Huechuraba Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>134833</v>
+        <v>4800</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5190079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>CONJUNTO PARQUE RIESCO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Inversiones y Desarrollo Huechuraba Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1750</v>
+        <v>134833</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>29/12/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5190079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo "Santa Marta"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Gonzalo Ponce Guerra</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Proyecto de Loteo "Santa Marta"</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Gonzalo Ponce Guerra</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba "MPRCH-2 Prórroga Declaratoria de Utilidad Pública de los Terrenos Destinados a Vías Coletctoras" (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huechuraba</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3917498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba "MPRCH-2 Prórroga Declaratoria de Utilidad Pública de los Terrenos Destinados a Vías Coletctoras" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Ilustre Municipalidad de Huechuraba</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>21/07/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3917498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Condominio Prados del Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Security S.A. para Santa Marta Fondo de InversionPrivado</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7000</v>
+        <v>22</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3723541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RECOLETA 5200 - LOTE Nº 3 (e-seia)</t>
+          <t>Condominio Prados del Norte (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>INMOBILIARIA RECOLETA 5200 LTDA.</t>
+          <t>Inmobiliaria Security S.A. para Santa Marta Fondo de InversionPrivado</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3581345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3723541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>RECOLETA 5200 - LOTE Nº 3 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>INMOBILIARIA RECOLETA 5200 LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>24/02/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3581345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6712</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Vista Hermosa (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3415990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>Proyecto Inmobiliario Vista Hermosa (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3415990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,12 +6098,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>EDIFICACION TORRE 16 CONJUNTO HABITACIONAL BOSQUES DE LA PIRAMIDE (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Paute Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3851</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>EDIFICACION TORRE 16 CONJUNTO HABITACIONAL BOSQUES DE LA PIRAMIDE (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Inmobiliaria Rio Paute Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>25</v>
+        <v>3851</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>20/11/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Condominio La Hacienda de Huechuraba 6, 7 y 8 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>22000</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3243031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Condominio La Hacienda de Huechuraba 6, 7 y 8 (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>22000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>07/10/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3243031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>14367</v>
+        <v>1750</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>14367</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LOTEO HUECHURABA II (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LA CRUZ S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4706</v>
+        <v>1750</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3135440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>LOTEO HUECHURABA II (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>INMOBILIARIA LA CRUZ S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>4706</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3135440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7215,17 +7215,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construccion Nuevas Instalaciones Automotora Mitsui Ltda. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Automotora Mitsui Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3900</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2829790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construccion Nuevas Instalaciones Automotora Mitsui Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Automotora Mitsui Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>3900</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2829790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto Condominio La Liguria (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Simonetti Gestión S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>14000</v>
+        <v>1750</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Loteo "Haras de Huechuraba H1-I1" (e-seia)</t>
+          <t>Proyecto Condominio La Liguria (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gonzalo Ponce Guerra</t>
+          <t>Simonetti Gestión S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Loteo "Haras de Huechuraba H1-I1" (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Gonzalo Ponce Guerra</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Haras de Huechuraba Lote D2 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1360</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>21/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2654795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Haras de Huechuraba D2 (e-seia)</t>
+          <t>Haras de Huechuraba Lote D2 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7883,21 +7883,21 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>21/01/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2654795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Loteo Haras de Huechuraba D2 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,30 +7922,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,30 +8018,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones Sector calles Jorge Inostroza Avenida El Pincoy (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,20 +8066,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>29/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2441826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones Sector calles Jorge Inostroza Avenida El Pincoy (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,30 +8114,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>29/10/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2441826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>860</v>
+        <v>30</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Terminal y Depósito de Minibuses Redbus Urbano S.A. (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,30 +8258,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Redbus Urbano S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1500</v>
+        <v>234</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Terminal y Depósito de Minibuses Redbus Urbano S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,20 +8306,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Redbus Urbano S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>28/09/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones, sector calles Jorge Inostroza- Los Damascos MPRC Huechuraba. Calles Inostroza y Los Damascos (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,20 +8498,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones, sector calles Jorge Inostroza- Los Damascos MPRC Huechuraba. Calles Inostroza y Los Damascos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,30 +8594,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>25000</v>
+        <v>210</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,30 +8690,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>80</v>
+        <v>25000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,25 +8743,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Stelvin (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,25 +8935,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>640</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1983071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Punta Nogales (e-seia)</t>
+          <t>Proyecto Stelvin (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA SANTIAGO S.A.</t>
+          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>32300</v>
+        <v>640</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1983071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto STELVIN CHILE (e-seia)</t>
+          <t>Proyecto Inmobiliario Punta Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,25 +9031,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
+          <t>INMOBILIARIA SOCOVESA SANTIAGO S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>640</v>
+        <v>32300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>29/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1893878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto STELVIN CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,30 +9074,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/01/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1893878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9135,17 +9135,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9327,17 +9327,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,25 +9415,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,25 +9463,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE LAS LÍNEAS 110 kV LOS ALMENDROS EL SALTO Y EL SALTO SAN CRISTÓBAL Exp. Nº 112/06 (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,30 +9554,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2039</v>
+        <v>20</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>MODIFICACIÓN DE LAS LÍNEAS 110 kV LOS ALMENDROS EL SALTO Y EL SALTO SAN CRISTÓBAL Exp. Nº 112/06 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,20 +9602,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>80</v>
+        <v>2039</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,25 +9703,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9759,17 +9759,17 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,25 +9799,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9855,17 +9855,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,25 +9943,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Depósito y terminal de Vehiculos Huechuraba, Troncal 1 Exp. Nº006/2006 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,30 +9986,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ALSACIA S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Depósito y terminal de Vehiculos Huechuraba, Troncal 1 Exp. Nº006/2006 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,20 +10034,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALSACIA S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>72</v>
+        <v>2112</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>09/01/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10095,17 +10095,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,25 +10135,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,12 +10178,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10191,17 +10191,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliación Espacio Riesco (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,25 +10231,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Centro de convenciones Santiago</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>24/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Ampliación Espacio Riesco (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,20 +10274,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Centro de convenciones Santiago</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>160</v>
+        <v>6170</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>24/11/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,20 +10322,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>5880</v>
+        <v>160</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS HUECHURABA-RECOLETA TRONCAL 2 Exp. Nº115/2005. (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,20 +10466,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>7761</v>
+        <v>80</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS HUECHURABA-RECOLETA TRONCAL 2 Exp. Nº115/2005. (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,20 +10514,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>7761</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10715,11 +10715,11 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110kVLos Almendros el Salto, Tramo Tap a S/E La Dehhesa - S/E El Salto (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,20 +10754,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>844</v>
+        <v>40</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>04/07/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>RECTIFICACIÓN DEL TRAZADO DESCRITO EN LOS CONSIDERANDOS 3.2.1 A 3.2.7 DE LA RESOLUCIÓN EXENTA N.° 273/2003 DE LA COREMA DE LA REGIÓN METROPOLITANA, QUE APROBÓ EL PROYECTO CONCESIÓN INTERNACIONAL ACCESO NORORIENTE A SANTIAGO, SECTOR ORIENTE, ENLACE CENTENARIO-ENLACE AVDA. DEL VALLE (e-seia)</t>
+          <t>Refuerzo Línea 110kVLos Almendros el Salto, Tramo Tap a S/E La Dehhesa - S/E El Salto (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,15 +10807,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>203000</v>
+        <v>844</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>17/06/2005</t>
+          <t>04/07/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>RECTIFICACIÓN DEL TRAZADO DESCRITO EN LOS CONSIDERANDOS 3.2.1 A 3.2.7 DE LA RESOLUCIÓN EXENTA N.° 273/2003 DE LA COREMA DE LA REGIÓN METROPOLITANA, QUE APROBÓ EL PROYECTO CONCESIÓN INTERNACIONAL ACCESO NORORIENTE A SANTIAGO, SECTOR ORIENTE, ENLACE CENTENARIO-ENLACE AVDA. DEL VALLE (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,20 +10850,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>855</v>
+        <v>203000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>17/06/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10911,17 +10911,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,30 +10946,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11007,17 +11007,17 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,30 +11090,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,15 +11143,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Áridos Av. Américo Vespucio Norte (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,30 +11234,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Planta de Procesamiento de Áridos Av. Américo Vespucio Norte (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,25 +11287,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Áridos, Parcela 22, Calle El Guanaco (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa constructora Fe Grande S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11343,17 +11343,17 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Procesamiento de Áridos, Parcela 22, Calle El Guanaco (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,30 +11378,30 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa constructora Fe Grande S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Metro Ligero Ejes Recoleta Independencia Santos Dumont</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,30 +11426,30 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>180000</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Metro Ligero Ejes Recoleta Independencia Santos Dumont</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,20 +11474,20 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,22 +11512,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Concesión Internacional Acceso Nor Oriente a Santiago Sector Oriente. Enlace Centenario - Enlace Avenida del Valle</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11535,17 +11535,17 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,12 +11560,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Lavado y Lubricación de Vehículos Livianos E.S. ESSO Av. Pedro Fontova</t>
+          <t>Concesión Internacional Acceso Nor Oriente a Santiago Sector Oriente. Enlace Centenario - Enlace Avenida del Valle</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11575,15 +11575,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>04/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Lavado y Lubricación de Vehículos Livianos E.S. ESSO Av. Pedro Fontova</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>04/10/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Mall Plaza Huechuraba</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Plaza Oeste S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>05/07/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Mall Plaza Huechuraba</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Plaza Oeste S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>05/07/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rinconada del Salto</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,15 +11767,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Fondo de Inversión Santander Plusvalía</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>22/03/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS 22 Modifica Trazado Radial Nor Oriente M21N Prolongación El Alfalfal T14N</t>
+          <t>Conjunto Habitacional Rinconada del Salto</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,15 +11815,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Fondo de Inversión Santander Plusvalía</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>22/03/2002</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Estación de Servicio Esso Pedro Fontova esq. Avda. El Guanaco, Comuna de Huechuraba (e-seia)</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS 22 Modifica Trazado Radial Nor Oriente M21N Prolongación El Alfalfal T14N</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,15 +11863,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Estación de Servicio Esso Pedro Fontova esq. Avda. El Guanaco, Comuna de Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,15 +11911,15 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,30 +11954,30 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,12 +11992,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -12007,25 +12007,25 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,30 +12040,30 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12111,17 +12111,17 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,12 +12146,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Construcción y Operación de Planta de Acabados de Telas y Sistema de Tratamiento de RILes de Jadue</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,30 +12194,30 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Faud Murad Alberto Jadue Díaz</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>10/10/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
+          <t>Construcción y Operación de Planta de Acabados de Telas y Sistema de Tratamiento de RILes de Jadue</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,20 +12242,20 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Compañia Transmisora del Norte Grande S.A</t>
+          <t>Faud Murad Alberto Jadue Díaz</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>10/10/2000</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Huechuraba</t>
+          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,30 +12290,30 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Huechuraba</t>
+          <t>Compañia Transmisora del Norte Grande S.A</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>07/03/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Huechuraba</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,30 +12338,30 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Huechuraba</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>07/03/2000</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Loteo Pedro Fontova</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,20 +12386,20 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Empresa Constructora Mena y Ovalle S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10700</v>
+        <v>110</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,12 +12424,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 220 kv a subestación de Transmisión El Salto</t>
+          <t>Loteo Pedro Fontova</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -12439,15 +12439,15 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Empresa Constructora Mena y Ovalle S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,12 +12472,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Condominios La Llanura Los Pimientos Los Canelos y Los Cerezos</t>
+          <t>Línea de Transmisión 220 kv a subestación de Transmisión El Salto</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -12487,15 +12487,15 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>8430</v>
+        <v>8900</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>13/04/1998</t>
+          <t>20/08/1998</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Colegio Huechuraba</t>
+          <t>Condominios La Llanura Los Pimientos Los Canelos y Los Cerezos</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,15 +12535,15 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tierra Fértil Ltda.</t>
+          <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2600</v>
+        <v>8430</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>05/02/1998</t>
+          <t>13/04/1998</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,43 +12568,91 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
+          <t>Colegio Huechuraba</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Tierra Fértil Ltda.</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>05/02/1998</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Huechuraba</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F255" t="n">
+      <c r="F256" t="n">
         <v>300000</v>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I255" t="inlineStr">
+      <c r="I256" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J255" t="inlineStr">
+      <c r="J256" t="inlineStr">
         <is>
           <t>Huechuraba</t>
         </is>

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Huechuraba</t>
+          <t>Centro de Almacenamiento de Datos Huechuraba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Electrica Huechuraba SpA</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>205000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/12/2022</t>
+          <t>13/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157949519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Los Sauces</t>
+          <t>Línea de Alta Tensión Huechuraba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro Centro SpA</t>
+          <t>Electrica Huechuraba SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>41287</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156786332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157949519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cumbre de Girasoles</t>
+          <t>Los Sauces</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
+          <t>Inmobiliaria Pocuro Centro SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17816</v>
+        <v>41287</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/07/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156496518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156786332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Waykú</t>
+          <t>Cumbre de Girasoles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>La Pirámide Norte SpA</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>86049</v>
+        <v>17816</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>04/04/2022</t>
+          <t>27/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156496518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>Ampliación Waykú</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Marta SpA</t>
+          <t>La Pirámide Norte SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100000</v>
+        <v>86049</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/10/2021</t>
+          <t>04/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153469867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Loteo El Guanaco</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Trébol S.A.</t>
+          <t>Inmobiliaria Santa Marta SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/08/2021</t>
+          <t>15/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152638847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153469867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Riesco Huechuraba</t>
+          <t>Loteo El Guanaco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Riesco SpA</t>
+          <t>Inmobiliaria El Trébol S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>42412</v>
+        <v>40000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/11/2020</t>
+          <t>06/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148877256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152638847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Santa Marta</t>
+          <t>Parque Riesco Huechuraba</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Marta SpA</t>
+          <t>Inmobiliaria Parque Riesco SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100000</v>
+        <v>42412</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/10/2020</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148444092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148877256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>02/10/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965096&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148444092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Vitapark</t>
+          <t>Santa Marta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Pirámide SpA</t>
+          <t>Inmobiliaria Santa Marta SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>91000</v>
+        <v>100000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/06/2020</t>
+          <t>16/09/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965096&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Medialuna</t>
+          <t>Proyecto Vitapark</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Inmobiliaria La Pirámide SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10656</v>
+        <v>91000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>15/06/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146357568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Fotovoltaico Medialuna</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>10656</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146357568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Condominio Plaza del Árbol</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Green Limitada.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145151253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conjunto Huechuraba</t>
+          <t>Condominio Plaza del Árbol</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inversiones E Inmobiliaria Plaenge Chile Limitada</t>
+          <t>Inmobiliaria y Constructora Green Limitada.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>126707</v>
+        <v>15000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144175128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145151253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Cal en la Región Metropolitana</t>
+          <t>Conjunto Huechuraba</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Inversiones E Inmobiliaria Plaenge Chile Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7000</v>
+        <v>126707</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/01/2019</t>
+          <t>12/09/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142385765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144175128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14/01/2019</t>
+          <t>30/01/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142271588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142385765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Carmen Oriente</t>
+          <t>Transporte Terrestre de Cal en la Región Metropolitana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>136966</v>
+        <v>7000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>14/01/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141882572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142271588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAGUNA DE LA PIRÁMIDE</t>
+          <t>El Carmen Oriente</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>INVERSIONES DESCO S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>55583</v>
+        <v>136966</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138724963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141882572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>LAGUNA DE LA PIRÁMIDE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>INVERSIONES DESCO S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>55583</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138724963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CAL VIVA HACIA MINERA LOS BRONCES</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1355,21 +1355,21 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7233</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132432429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/05/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132403227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132432429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cocheras Vespucio Norte Línea 2</t>
+          <t>TRANSPORTE DE CAL VIVA HACIA MINERA LOS BRONCES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>65000</v>
+        <v>7233</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>23/05/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132403227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El Carmen Oriente</t>
+          <t>Cocheras Vespucio Norte Línea 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80090</v>
+        <v>65000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132281407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132402934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>El Carmen Oriente</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>80090</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132281407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Condominio El Carmen Oriente</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria El Carmen Oriente S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>76847</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131517168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LOTE F, HUECHURABA</t>
+          <t>Condominio El Carmen Oriente</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorias H y C S.A.</t>
+          <t>Inmobiliaria El Carmen Oriente S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5420</v>
+        <v>76847</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/03/2016</t>
+          <t>29/06/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131244386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131517168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
+          <t>LOTE F, HUECHURABA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
+          <t>Inversiones y Asesorias H y C S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>900000</v>
+        <v>5420</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>16/03/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131244386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lote F, Huechuraba</t>
+          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inversiones y Asesorías H y C S.A.</t>
+          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5420</v>
+        <v>900000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LOTEO 3F</t>
+          <t>Lote F, Huechuraba</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LA CRUZ S.A.</t>
+          <t>Inversiones y Asesorías H y C S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>22700</v>
+        <v>5420</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/11/2015</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130883225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130878470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loteo 3F</t>
+          <t>LOTEO 3F</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Cruz S.A.</t>
+          <t>INMOBILIARIA LA CRUZ S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/10/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130804482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130883225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vitapark</t>
+          <t>Loteo 3F</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicios de Información Empresarial Limitada</t>
+          <t>Inmobiliaria La Cruz S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200429</v>
+        <v>22700</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/05/2015</t>
+          <t>06/10/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130435341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130804482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/04/2015</t>
+          <t>08/05/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130373849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130435341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Vitapark</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Servicios de Información Empresarial Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>200429</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>14/04/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130373849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NUEVA SAN CRISTÓBAL</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conquistadores Norte S.A</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>71770</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128934038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>NUEVA SAN CRISTÓBAL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria Conquistadores Norte S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>71770</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128934038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Polideportivo El Salto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y ADMINISTRADORA DE RECINTOS SPA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>25000</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7878867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Instalación de Estanques de Gas, Planta Alpes Cook &amp; Chill</t>
+          <t>Polideportivo El Salto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CENTRAL DE RESTAURANTES-ARAMARK LTDA.</t>
+          <t>INMOBILIARIA Y ADMINISTRADORA DE RECINTOS SPA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/11/2012</t>
+          <t>14/02/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7474056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7878867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Actividad de Recuperación de Aceite Dieléctrico en Transformadores</t>
+          <t>Instalación de Estanques de Gas, Planta Alpes Cook &amp; Chill</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kioshi Chile SpA</t>
+          <t>CENTRAL DE RESTAURANTES-ARAMARK LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2225</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/08/2012</t>
+          <t>15/11/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7280836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7474056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Actividad Recuperación de Aceite Dieléctrico en Transformadores</t>
+          <t>Actividad de Recuperación de Aceite Dieléctrico en Transformadores</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Comercial Kioshi Chile Ltda.</t>
+          <t>Kioshi Chile SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/08/2012</t>
+          <t>31/08/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7243160&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7280836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Condominio Habitacional "Los Fresnos" Condominio Los Fresnos Exp. 101/2012</t>
+          <t>Actividad Recuperación de Aceite Dieléctrico en Transformadores</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Comercial Kioshi Chile Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8000</v>
+        <v>2225</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/08/2012</t>
+          <t>22/08/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7240699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7243160&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Condominio Habitacional "Los Fresnos" Condominio Los Fresnos Exp. 101/2012</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>16/08/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7240699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CONSTRUCCION TORRES 1, 2 Y 3 CONDOMINIO BOSQUES DE LA PIRAMIDE, EX TORRES 16, 17 Y 18</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>INMOBILIARIA ACTUAL BOSQUES DE LA PIRAMIDE SA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>29907</v>
+        <v>800</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>CONSTRUCCION TORRES 1, 2 Y 3 CONDOMINIO BOSQUES DE LA PIRAMIDE, EX TORRES 16, 17 Y 18</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>INMOBILIARIA ACTUAL BOSQUES DE LA PIRAMIDE SA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>29907</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>26/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6533918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Condominio Habitacional "Los Fresnos"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6325181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Condominio Habitacional "Los Fresnos"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>29/11/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6325181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Condominio "Los Fresnos"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Condominio "Los Fresnos"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>17/11/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,11 +4427,11 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CONJUNTO PARQUE RIESCO</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inversiones y Desarrollo Huechuraba Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>134833</v>
+        <v>4800</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5190079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>CONJUNTO PARQUE RIESCO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Inversiones y Desarrollo Huechuraba Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1750</v>
+        <v>134833</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>29/12/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5190079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo "Santa Marta"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Gonzalo Ponce Guerra</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Proyecto de Loteo "Santa Marta"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Gonzalo Ponce Guerra</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>20/05/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba "MPRCH-2 Prórroga Declaratoria de Utilidad Pública de los Terrenos Destinados a Vías Coletctoras" (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huechuraba</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3917498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba "MPRCH-2 Prórroga Declaratoria de Utilidad Pública de los Terrenos Destinados a Vías Coletctoras" (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Ilustre Municipalidad de Huechuraba</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>21/07/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3917498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Condominio Prados del Norte (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Security S.A. para Santa Marta Fondo de InversionPrivado</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7000</v>
+        <v>22</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3723541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RECOLETA 5200 - LOTE Nº 3 (e-seia)</t>
+          <t>Condominio Prados del Norte (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>INMOBILIARIA RECOLETA 5200 LTDA.</t>
+          <t>Inmobiliaria Security S.A. para Santa Marta Fondo de InversionPrivado</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3581345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3723541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>RECOLETA 5200 - LOTE Nº 3 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>INMOBILIARIA RECOLETA 5200 LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>24/02/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3581345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6712</v>
+        <v>2000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Vista Hermosa (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3415990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>Proyecto Inmobiliario Vista Hermosa (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3415990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>EDIFICACION TORRE 16 CONJUNTO HABITACIONAL BOSQUES DE LA PIRAMIDE (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Rio Paute Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3851</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>EDIFICACION TORRE 16 CONJUNTO HABITACIONAL BOSQUES DE LA PIRAMIDE (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Inmobiliaria Rio Paute Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>25</v>
+        <v>3851</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>20/11/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Condominio La Hacienda de Huechuraba 6, 7 y 8 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>22000</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3243031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Condominio La Hacienda de Huechuraba 6, 7 y 8 (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>22000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>07/10/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3243031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>14367</v>
+        <v>1750</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LOTEO HUECHURABA II (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>INMOBILIARIA LA CRUZ S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4706</v>
+        <v>1750</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3135440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>LOTEO HUECHURABA II (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>INMOBILIARIA LA CRUZ S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>4706</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3135440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7263,17 +7263,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construccion Nuevas Instalaciones Automotora Mitsui Ltda. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Automotora Mitsui Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3900</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2829790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construccion Nuevas Instalaciones Automotora Mitsui Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Automotora Mitsui Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>3900</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2829790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Condominio La Liguria (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Simonetti Gestión S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>14000</v>
+        <v>1750</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Loteo "Haras de Huechuraba H1-I1" (e-seia)</t>
+          <t>Proyecto Condominio La Liguria (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gonzalo Ponce Guerra</t>
+          <t>Simonetti Gestión S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2720777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Loteo "Haras de Huechuraba H1-I1" (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Gonzalo Ponce Guerra</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2694717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Haras de Huechuraba Lote D2 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,30 +7874,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>URBANIZA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1360</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>21/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2654795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Haras de Huechuraba D2 (e-seia)</t>
+          <t>Haras de Huechuraba Lote D2 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,21 +7931,21 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>21/01/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2654795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Loteo Haras de Huechuraba D2 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>URBANIZA S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,30 +8018,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,30 +8066,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones Sector calles Jorge Inostroza Avenida El Pincoy (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,20 +8114,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2441826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones Sector calles Jorge Inostroza Avenida El Pincoy (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,30 +8162,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>29/10/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2441826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>860</v>
+        <v>30</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Terminal y Depósito de Minibuses Redbus Urbano S.A. (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,30 +8306,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Redbus Urbano S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1500</v>
+        <v>234</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Terminal y Depósito de Minibuses Redbus Urbano S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,20 +8354,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Redbus Urbano S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>28/09/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones, sector calles Jorge Inostroza- Los Damascos MPRC Huechuraba. Calles Inostroza y Los Damascos (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,20 +8546,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Modificación Plan Regulador Comunal de Huechuraba via artículo 50 Ley General de Urbanismo y Construcciones, sector calles Jorge Inostroza- Los Damascos MPRC Huechuraba. Calles Inostroza y Los Damascos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2262581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,30 +8642,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>25000</v>
+        <v>210</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,30 +8738,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>80</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,25 +8791,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Stelvin (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,25 +8983,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>640</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1983071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Punta Nogales (e-seia)</t>
+          <t>Proyecto Stelvin (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA SANTIAGO S.A.</t>
+          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>32300</v>
+        <v>640</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>02/02/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1983071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto STELVIN CHILE (e-seia)</t>
+          <t>Proyecto Inmobiliario Punta Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,25 +9079,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
+          <t>INMOBILIARIA SOCOVESA SANTIAGO S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>640</v>
+        <v>32300</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>29/01/2007</t>
+          <t>02/02/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1893878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1974401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto STELVIN CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,30 +9122,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>AMCOR FLEXIBLES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/01/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1893878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9183,17 +9183,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9375,17 +9375,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,25 +9415,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,25 +9463,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,25 +9559,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE LAS LÍNEAS 110 kV LOS ALMENDROS EL SALTO Y EL SALTO SAN CRISTÓBAL Exp. Nº 112/06 (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,30 +9602,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2039</v>
+        <v>20</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>22/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>MODIFICACIÓN DE LAS LÍNEAS 110 kV LOS ALMENDROS EL SALTO Y EL SALTO SAN CRISTÓBAL Exp. Nº 112/06 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,20 +9650,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>80</v>
+        <v>2039</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>22/09/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1702600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,25 +9751,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9807,17 +9807,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,25 +9847,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9903,17 +9903,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,25 +9991,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Depósito y terminal de Vehiculos Huechuraba, Troncal 1 Exp. Nº006/2006 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,30 +10034,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ALSACIA S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Depósito y terminal de Vehiculos Huechuraba, Troncal 1 Exp. Nº006/2006 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,20 +10082,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ALSACIA S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>72</v>
+        <v>2112</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>09/01/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10143,17 +10143,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,25 +10183,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10239,17 +10239,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación Espacio Riesco (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Centro de convenciones Santiago</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>24/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Ampliación Espacio Riesco (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,20 +10322,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Centro de convenciones Santiago</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>160</v>
+        <v>6170</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>24/11/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,20 +10370,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>5880</v>
+        <v>160</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,20 +10466,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>80</v>
+        <v>5880</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS HUECHURABA-RECOLETA TRONCAL 2 Exp. Nº115/2005. (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,20 +10514,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>7761</v>
+        <v>80</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/10/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>DEPÓSITO Y TERMINAL DE VEHÍCULOS HUECHURABA-RECOLETA TRONCAL 2 Exp. Nº115/2005. (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,20 +10562,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>7761</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>14/10/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1061824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,15 +10711,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10763,11 +10763,11 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110kVLos Almendros el Salto, Tramo Tap a S/E La Dehhesa - S/E El Salto (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,20 +10802,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>844</v>
+        <v>40</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>04/07/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>RECTIFICACIÓN DEL TRAZADO DESCRITO EN LOS CONSIDERANDOS 3.2.1 A 3.2.7 DE LA RESOLUCIÓN EXENTA N.° 273/2003 DE LA COREMA DE LA REGIÓN METROPOLITANA, QUE APROBÓ EL PROYECTO CONCESIÓN INTERNACIONAL ACCESO NORORIENTE A SANTIAGO, SECTOR ORIENTE, ENLACE CENTENARIO-ENLACE AVDA. DEL VALLE (e-seia)</t>
+          <t>Refuerzo Línea 110kVLos Almendros el Salto, Tramo Tap a S/E La Dehhesa - S/E El Salto (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,15 +10855,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>203000</v>
+        <v>844</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>17/06/2005</t>
+          <t>04/07/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>RECTIFICACIÓN DEL TRAZADO DESCRITO EN LOS CONSIDERANDOS 3.2.1 A 3.2.7 DE LA RESOLUCIÓN EXENTA N.° 273/2003 DE LA COREMA DE LA REGIÓN METROPOLITANA, QUE APROBÓ EL PROYECTO CONCESIÓN INTERNACIONAL ACCESO NORORIENTE A SANTIAGO, SECTOR ORIENTE, ENLACE CENTENARIO-ENLACE AVDA. DEL VALLE (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,20 +10898,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>855</v>
+        <v>203000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>17/06/2005</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10959,17 +10959,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,30 +10994,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11055,17 +11055,17 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,30 +11138,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,15 +11191,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,15 +11239,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Áridos Av. Américo Vespucio Norte (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,30 +11282,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Planta de Procesamiento de Áridos Av. Américo Vespucio Norte (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,25 +11335,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=374181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Procesamiento de Áridos, Parcela 22, Calle El Guanaco (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa constructora Fe Grande S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11391,17 +11391,17 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Procesamiento de Áridos, Parcela 22, Calle El Guanaco (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,30 +11426,30 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa constructora Fe Grande S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=241405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Metro Ligero Ejes Recoleta Independencia Santos Dumont</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,30 +11474,30 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>180000</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Metro Ligero Ejes Recoleta Independencia Santos Dumont</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,20 +11522,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,22 +11560,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Concesión Internacional Acceso Nor Oriente a Santiago Sector Oriente. Enlace Centenario - Enlace Avenida del Valle</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11583,17 +11583,17 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,12 +11608,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lavado y Lubricación de Vehículos Livianos E.S. ESSO Av. Pedro Fontova</t>
+          <t>Concesión Internacional Acceso Nor Oriente a Santiago Sector Oriente. Enlace Centenario - Enlace Avenida del Valle</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11623,15 +11623,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Sociedad Concesionaria Autopista Nororiente S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>04/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Lavado y Lubricación de Vehículos Livianos E.S. ESSO Av. Pedro Fontova</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,15 +11671,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>04/10/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Mall Plaza Huechuraba</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,15 +11719,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Plaza Oeste S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>05/07/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Mall Plaza Huechuraba</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,15 +11767,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Plaza Oeste S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>05/07/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Rinconada del Salto</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,15 +11815,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Fondo de Inversión Santander Plusvalía</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>22/03/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS 22 Modifica Trazado Radial Nor Oriente M21N Prolongación El Alfalfal T14N</t>
+          <t>Conjunto Habitacional Rinconada del Salto</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,15 +11863,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Fondo de Inversión Santander Plusvalía</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>22/03/2002</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Estación de Servicio Esso Pedro Fontova esq. Avda. El Guanaco, Comuna de Huechuraba (e-seia)</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS 22 Modifica Trazado Radial Nor Oriente M21N Prolongación El Alfalfal T14N</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,15 +11911,15 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11361&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Estación de Servicio Esso Pedro Fontova esq. Avda. El Guanaco, Comuna de Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,15 +11959,15 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=11361&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,30 +12002,30 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -12055,25 +12055,25 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,30 +12088,30 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12159,17 +12159,17 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,12 +12194,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Construcción y Operación de Planta de Acabados de Telas y Sistema de Tratamiento de RILes de Jadue</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12242,30 +12242,30 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Faud Murad Alberto Jadue Díaz</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>10/10/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
+          <t>Construcción y Operación de Planta de Acabados de Telas y Sistema de Tratamiento de RILes de Jadue</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,20 +12290,20 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Compañia Transmisora del Norte Grande S.A</t>
+          <t>Faud Murad Alberto Jadue Díaz</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>10/10/2000</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Huechuraba</t>
+          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,30 +12338,30 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Huechuraba</t>
+          <t>Compañia Transmisora del Norte Grande S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>07/03/2000</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Huechuraba</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,30 +12386,30 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Huechuraba</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>07/03/2000</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Loteo Pedro Fontova</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,20 +12434,20 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Empresa Constructora Mena y Ovalle S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>10700</v>
+        <v>110</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,12 +12472,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 220 kv a subestación de Transmisión El Salto</t>
+          <t>Loteo Pedro Fontova</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -12487,15 +12487,15 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Empresa Constructora Mena y Ovalle S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,12 +12520,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Condominios La Llanura Los Pimientos Los Canelos y Los Cerezos</t>
+          <t>Línea de Transmisión 220 kv a subestación de Transmisión El Salto</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -12535,15 +12535,15 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>8430</v>
+        <v>8900</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>13/04/1998</t>
+          <t>20/08/1998</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Colegio Huechuraba</t>
+          <t>Condominios La Llanura Los Pimientos Los Canelos y Los Cerezos</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,15 +12583,15 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Inmobiliaria Tierra Fértil Ltda.</t>
+          <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2600</v>
+        <v>8430</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>05/02/1998</t>
+          <t>13/04/1998</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,43 +12616,91 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
+          <t>Colegio Huechuraba</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Tierra Fértil Ltda.</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>05/02/1998</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Huechuraba</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F256" t="n">
+      <c r="F257" t="n">
         <v>300000</v>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr">
+      <c r="I257" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J256" t="inlineStr">
+      <c r="J257" t="inlineStr">
         <is>
           <t>Huechuraba</t>
         </is>

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/01/2023</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F254" t="n">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS HUECHURABA-INDEPENDENCIA TRONCAL 2 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/03/2023</t>
+          <t>15/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Refuerzo Líneas 110 kV San Cristóbal Cerro Navia, tramo San Cristóbal Tap Recoleta y El Salto San Cristóbal, tramo Torre T28 San Cristóbal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6712</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/Huechuraba.xlsx
+++ b/data/Huechuraba.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Fundación un techo para Chile</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO VISTA HERMOSA (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Fundación un techo para Chile</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3507517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Condominio Parque Huechuraba (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria Torreón del Carmen II S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>14367</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Condominio Parque Huechuraba (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Torreón del Carmen II S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>14367</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Cementerio Parque del Recuerdo Vespucio II (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>300</v>
+        <v>25000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2234854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
